--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_llama_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_llama_wikidata_results_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\baseline-model\baseline-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A632C932-2F90-4B13-8696-CE1358E59788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9E722-B329-49ED-9E37-51F71D0B1A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="455">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Penguin_Books wdt:P112 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX o: &lt;http://www.wikidata.org/prop/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; p:statement p179; ps:P179 ?film. BIND(?film AS ?uri). }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?musical WHERE { ?musical wdt:P138 wdt:P463; wdt:P175 wd:Q543614. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { wd:Skype wdt:P1372 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482478 ; wdt:P355 wd:Q115703. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:William_Shatner ; wdt:P161 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Mountain&gt; ; &lt;http://www.wikidata.org/prop/direct/P213&gt; ?elevation . FILTER( ?elevation &gt; 0 ) SERVICE wikibase:internalId { ?uri wikibase:externalId ?extId . FILTER( STRSTARTS(?extId, "Peak:") ) } } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424; ?item wdt:P161 wd:Q41176. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q53407 wdt:P570 ?date }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri wdt:P58 wd:Q155 &lt;/sparql&gt; &lt;!-- wdt:P58 is the Wikidata equivalent of "starring" --&gt; ?uri wdt:P58 wd:Q13335 . &lt;/sparql&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { qd:Q43871 p179 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q116621 wd:budget ?n }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q13442898 ; wdt:P1476 ?albumLabel ; wdt:P175 wd:Q41538 ; wdt:P577 ?releaseDate ; wdt:P132 ?label . FILTER (lang(?label) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q393439 wds:P577 ?runtime }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q1353955 ; wdt:P1242 wd:Q39782 }</t>
-  </si>
-  <si>
-    <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikidata-prop: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film a wikidata:Q11489 ; wikidata-prop:P161 wikidata:Q10320 ; wikidata-prop:P57 wikidata:Q472703 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q516026 wdt:P569 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q13002 wdt:P2047 ?num }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:P416 ?mountain; wdt:P131 wd:Italy; wdt:P2048 ?elevation . FILTER (?elevation &gt; 0) } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Albert_Einstein wdt:P101 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?mainOccupation WHERE { wd:Q76 wdt:P106 ?occupation . ?occupation wdt:P31 ?mainOccupation . FILTER (strstarts(str(?mainOccupation), "Q") &amp;&amp; ?mainOccupation != wd:Q76) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.w3.org/2007/05/trix/rdfsource&gt; &lt;http://www.wikidata.org/entity/Q21690&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?population WHERE { wd:Q776 wdt:P1088 ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?Author WHERE { wd:The_Interpretation_of_Dreams wdt:P175 ?Author }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:John_Adams wdt:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q142 dbr:European_Union wdt:P1082 ?europop }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:China wdt:P175 ?currency. BIND(STRAFTER(STR(?currency), STR(wd:)) AS ?currencyId) SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } OPTIONAL { ?currency wdt:P38 ?value } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q21696 wdt:P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q6604&gt; ; &lt;http://www.wikidata.org/prop/direct/P168&gt; &lt;http://www.wikidata.org/entity/Q157&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q495&gt; ; &lt;http://www.wikidata.org/prop/direct/P17&gt; &lt;http://www.wikidata.org/entity/Q212&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:World_of_Warcraft p179 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11491. BIND(str(?uri) AS ?companyURI). OPTIONAL { ?uri wdt:P97 ?industry. FILTER(regex(?industry, "advertising", "i")). } UNION { ?uri wdt:P279* wd:Q47471090. } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?university WHERE { wd:Q80204 wdt:P69 ?university }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;https://www.wikidata.org/prop/direct/P31&gt; ; &lt;https://www.wikidata.org/prop/direct/P161&gt; &lt;https://www.wikidata.org/wiki/Q162828&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#CreativeWork&gt; ; &lt;http://www.wikidata.org/property/P345&gt; &lt;http://www.wikidata.org/entity/Q303&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Mount_Everest wdt:P131 ?uri . ?uri wikibase:Q142 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q159&gt; &lt;http://www.wikidata.org/prop/direct/P30&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX res: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge wdt:P1084 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q135028&gt; ; &lt;http://www.wikidata.org/prop/direct/P19&gt; &lt;http://www.wikidata.org/entity/Q13419&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film WHERE { ?film a wdt:P31 ; wds:P161 wd:Q42 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q51194&gt; ; &lt;http://www.wikidata.org/prop/direct/P2043&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q555 (wdt:P1082)?pop }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?person WHERE { ?person wdt:P31 wdt:P279* wd:Q5 ; wdt:P20 wd:Q183. }</t>
-  </si>
-  <si>
-    <t>`PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q506 ?child wdt:P40 ?uri }`</t>
-  </si>
-  <si>
-    <t>PREFIX schema: &lt;http://schema.org/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?ele WHERE { wd:1131175 wdt:P1549 ?ele } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { wd:Mecca wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT ?height WHERE { wd:Q42761 wdt:P2048 ?height }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q313061 wdt:P50 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q75918&gt; &lt;http://www.wikidata.org/prop/directProperty/P110&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?place WHERE { wd:Q45573 wdt:P20 ?place }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515; wdt:P1082 ?pop FILTER ( ?pop != 0 ) } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P50 wd:Walt_Disney . FILTER( strstarts( str(?uri), "http://www.wikidata.org/entity/Q") ) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31/wdt:P279* (wd:Q1989 ; wd:Q312458) ; wdt:P17 wd:Q35 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q96&gt; &lt;http://www.wikidata.org/prop/direct/P166&gt; ?ni }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Abraham_Lincoln wdt:P1107 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT ?capital WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P2046&gt; ?country. ?country &lt;http://www.wikidata.org/prop/direct/P17&gt; ?countryLabel. ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` Now, let's combine these prefixes with the query: `sparql&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?location WHERE {wd:Limerick_Lake wdt:P30 ?location}</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?num WHERE { wd:Q698228 wdt:P2047 ?num }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/prop/directive/P57&gt; &lt;http://www.wikidata.org/entity/Q543730&gt;; &lt;http://www.wikidata.org/prop/starring/P161&gt; &lt;http://www.wikidata.org/entity/Q543730&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?item wdt:P38 wd:Q20899. SERVICE wikibase:serviceLink { bd:serviceClass wikibase:entities.allValuesPaths. } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pIraq WHERE { wd:Q34 wdt:P1082 ?pIraq }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:P831 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1428 ; wdt:P17 wd:Q35 ; wdt:P138 wd:Q1293 }</t>
-  </si>
-  <si>
-    <t>SELECT ?actor ?date WHERE { &lt;https://www.wikidata.org/wiki/Q214523&gt; &lt;https://www.wikidata.org/prop/direct/109&gt; ?actor . ?actor &lt;https://www.wikidata.org/prop/direct/P569&gt; ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { wd:The_Three_Dancers wdt:P166 ?person. ?person p:P137/ps:P137 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a wd:Actor . OPTIONAL { ?uri wdt:P20 ?place } . OPTIONAL { ?place wdt:P17 wd:Germany } . FILTER NOT EXISTS { ?uri wdt:P31 wd:Q5 } UNION BIND(wd:Germany AS ?place) ?uri wdt:P20 ?place . FILTER (?place = wd:Germany) }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Brooklyn_Bridge wdt:P102 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Game_of_Thrones wdt:P175 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P57 wd:Q1383. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { dbr:Adele wdt:P1477 ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11173 ; wdt:P175 &lt;http://www.wikidata.org/entity/Q50976&gt; ; wdt:P577 ?d. FILTER (?d != "0000-00-00") ORDER BY ASC(?d) } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?currency WHERE { wd:Czech_Republic wdt:P37 ?currency }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri wdt:P20 wd:Q695 . ?uri wdt:P70 wd:Q175 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?bridge WHERE { ?bridge a wikidata:Bridge ; wikidata:crosses wikidata:Q2953 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5. ?x wdt:P50 ?uri. ?x wdt:P31 wd:Q33999. } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P577 wd:Q31389. }</t>
-  </si>
-  <si>
-    <t>SELECT ?writer WHERE { ?writer a wikidata.org/entity/Q5 ; wikidata.org/property/P166 wikidata.org/entity/Q80 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q321084&gt; wdt:P97 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/prop/direct/P106&gt; &lt;http://www.wikidata.org/entity/Q363515&gt; ; &lt;http://www.wikidata.org/prop/direct/P1308&gt; &lt;http://www.wikidata.org/entity/Q10424&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Athlete&gt; ; wdt:P2047 ?n. FILTER ( ?n &gt; 2.0 ) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P279* wd:Q11424 ; wdt:P161 wd:Q81466 ; wdt:P161 wd:Q155691. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Canada wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri wdt:P31 wd:Q5; wdt:P141 wd:Q618778; wdt:P275 ?birthplace. FILTER(regex(?birthplace, "Malta")) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Cameroon wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Q8387&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q38672&gt; { ?uri &lt;http://www.wikidata.org/prop/direct/P27&gt; &lt;http://www.wikidata.org/entity/Q159&gt; } UNION { ?uri &lt;http://www.wikidata.org/prop/direct/P27&gt; &lt;http://www.wikidata.org/entity/Q1347&gt; } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { ?entity wdt:P137 ?creator. FILTER (regex(str(?entity), "Family Guy")). FILTER (regex(str(?creator), "Seth MacFarlane")). }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Mexico_City WHERE { dbr:Mexico_City wdt:P1082 ?Mexico_City . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?entity wdt:P31 wd:Q96. ?entity wdt:P50 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Australia wdt:P17 ?x . ?x wdt:P36 ?capital . ?capital wdt:P1082 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:North_Rhine-Westphalia wdt:P2046 ?tarea }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q73&gt; &lt;http://www.wikidata.org/prop/direct/P1082&gt; ?number }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?n WHERE { wd:Pulp_Fiction wdt:P179 ?n }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT ?film ?filmtitle WHERE { {SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }} ?film a wdt:P31 wd:Q11424 . ?film wds:P161 ?starring . ?starring wdt:P18 wd:Q77909 . ?film wds:P57 ?filmtitle . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item a &lt;http://www.wikidata.org/ontology#Movie&gt; ; &lt;http://www.wikidata.org/prop/direct/P17&gt; &lt;http://www.wikidata.org/entity/Q147&gt; . }</t>
-  </si>
-  <si>
-    <t>`SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }`</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P17 ; wdt:P2046 ?n . FILTER( !BOUND(?n) ) } ORDER BY DESC(?n) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX sd: &lt;http://schema.org/&gt; SELECT ?Almamater WHERE { wd:Angela_Merkel wdt:P69 ?Almamater }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q3791&gt; &lt;http://www.wikidata.org/prop/direct/P170&gt; ?uri }</t>
-  </si>
-  <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
   </si>
   <si>
@@ -1265,277 +965,1085 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
+  </si>
+  <si>
+    <t>Entity treated as Property</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Stuctural Error</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Penguin_Books wdt:P112 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX o: &lt;http://www.wikidata.org/prop/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; p:statement p179; ps:P179 ?film. BIND(?film AS ?uri). }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"p179\\": mismatched input \'p179\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 262,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX o: &lt;http://www.wikidata.org/prop/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; p:statement p179; ps:P179 ?film. BIND(?film AS ?uri). }",\n        "startIndex": 262,\n        "stopIndex": 265\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX o: &lt;http://www.wikidata.org/prop/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; p:statement p179; ps:P179 ?film. BIND(?film AS ?uri). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"p179\\": mismatched input \'p179\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 262,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX o: &lt;http://www.wikidata.org/prop/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; p:statement p179; ps:P179 ?film. BIND(?film AS ?uri). }",\n        "startIndex": 560,\n        "stopIndex": 563\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX o: &lt;http://www.wikidata.org/prop/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; p:statement p179; ps:P179 ?film. BIND(?film AS ?uri). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?musical WHERE { ?musical wdt:P138 wdt:P463; wdt:P175 wd:Q543614. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 231,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?musical WHERE { ?musical wdt:P138 wdt:P463; wdt:P175 wd:Q543614. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 231,\n        "stopIndex": 244\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?musical WHERE { ?musical wdt:P138 wdt:P463; wdt:P175 wd:Q543614. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 231,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?musical WHERE { ?musical wdt:P138 wdt:P463; wdt:P175 wd:Q543614. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 529,\n        "stopIndex": 542\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?musical WHERE { ?musical wdt:P138 wdt:P463; wdt:P175 wd:Q543614. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { wd:Skype wdt:P1372 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482478 ; wdt:P355 wd:Q115703. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:William_Shatner ; wdt:P161 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Mountain&gt; ; &lt;http://www.wikidata.org/prop/direct/P213&gt; ?elevation . FILTER( ?elevation &gt; 0 ) SERVICE wikibase:internalId { ?uri wikibase:externalId ?extId . FILTER( STRSTARTS(?extId, "Peak:") ) } } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482478 ; wdt:P355 wd:Q115703. }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482478 ; wdt:P355 wd:Q115703. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 171,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Mountain&gt; ; &lt;http://www.wikidata.org/prop/direct/P213&gt; ?elevation . FILTER( ?elevation &gt; 0 ) SERVICE wikibase:internalId { ?uri wikibase:externalId ?extId . FILTER( STRSTARTS(?extId, \\"Peak:\\") ) } } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n        "startIndex": 469,\n        "stopIndex": 487\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Mountain&gt; ; &lt;http://www.wikidata.org/prop/direct/P213&gt; ?elevation . FILTER( ?elevation &gt; 0 ) SERVICE wikibase:internalId { ?uri wikibase:externalId ?extId . FILTER( STRSTARTS(?extId, \\"Peak:\\") ) } } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424; ?item wdt:P161 wd:Q41176. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 171,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Mountain&gt; ; &lt;http://www.wikidata.org/prop/direct/P213&gt; ?elevation . FILTER( ?elevation &gt; 0 ) SERVICE wikibase:internalId { ?uri wikibase:externalId ?extId . FILTER( STRSTARTS(?extId, \\"Peak:\\") ) } } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n        "startIndex": 171,\n        "stopIndex": 189\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Mountain&gt; ; &lt;http://www.wikidata.org/prop/direct/P213&gt; ?elevation . FILTER( ?elevation &gt; 0 ) SERVICE wikibase:internalId { ?uri wikibase:externalId ?extId . FILTER( STRSTARTS(?extId, \\"Peak:\\") ) } } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q41176\\": mismatched input \'wd:Q41176\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 85,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424; ?item wdt:P161 wd:Q41176. }",\n        "startIndex": 383,\n        "stopIndex": 391\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424; ?item wdt:P161 wd:Q41176. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q53407 wdt:P570 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri wdt:P58 wd:Q155 &lt;/sparql&gt; &lt;!-- wdt:P58 is the Wikidata equivalent of "starring" --&gt; ?uri wdt:P58 wd:Q13335 . &lt;/sparql&gt; }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q41176\\": mismatched input \'wd:Q41176\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 85,\n        "query": "SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424; ?item wdt:P161 wd:Q41176. }",\n        "startIndex": 85,\n        "stopIndex": 93\n    },\n    "query": "SELECT (COUNT(DISTINCT ?item) AS ?c) WHERE { ?item wdt:P31 wd:Q11424; ?item wdt:P161 wd:Q41176. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;/sparql&gt;\\": mismatched input \'&lt;/sparql&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 41,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?uri WHERE { ?uri wdt:P58 wd:Q155 &lt;/sparql&gt; &lt;!-- wdt:P58 is the Wikidata equivalent of \\"starring\\" --&gt; ?uri wdt:P58 wd:Q13335 . &lt;/sparql&gt; }",\n        "startIndex": 339,\n        "stopIndex": 347\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?uri WHERE { ?uri wdt:P58 wd:Q155 &lt;/sparql&gt; &lt;!-- wdt:P58 is the Wikidata equivalent of \\"starring\\" --&gt; ?uri wdt:P58 wd:Q13335 . &lt;/sparql&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { qd:Q43871 p179 ?uri }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q53407 wdt:P570 ?date }",\n        "startIndex": 30,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q53407 wdt:P570 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"p179\\": extraneous input \'p179\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 30,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?uri WHERE { qd:Q43871 p179 ?uri }",\n        "startIndex": 328,\n        "stopIndex": 331\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?uri WHERE { qd:Q43871 p179 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q116621 wd:budget ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q13442898 ; wdt:P1476 ?albumLabel ; wdt:P175 wd:Q41538 ; wdt:P577 ?releaseDate ; wdt:P132 ?label . FILTER (lang(?label) = 'en') }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q393439 wds:P577 ?runtime }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q1353955 ; wdt:P1242 wd:Q39782 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikidata-prop: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film a wikidata:Q11489 ; wikidata-prop:P161 wikidata:Q10320 ; wikidata-prop:P57 wikidata:Q472703 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q516026 wdt:P569 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1324130']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q13002 wdt:P2047 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:P416 ?mountain; wdt:P131 wd:Italy; wdt:P2048 ?elevation . FILTER (?elevation &gt; 0) } ORDER BY DESC(?elevation) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;/sparql&gt;\\": mismatched input \'&lt;/sparql&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 41,\n        "query": "SELECT ?uri WHERE { ?uri wdt:P58 wd:Q155 &lt;/sparql&gt; &lt;!-- wdt:P58 is the Wikidata equivalent of \\"starring\\" --&gt; ?uri wdt:P58 wd:Q13335 . &lt;/sparql&gt; }",\n        "startIndex": 41,\n        "stopIndex": 49\n    },\n    "query": "SELECT ?uri WHERE { ?uri wdt:P58 wd:Q155 &lt;/sparql&gt; &lt;!-- wdt:P58 is the Wikidata equivalent of \\"starring\\" --&gt; ?uri wdt:P58 wd:Q13335 . &lt;/sparql&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?mountain\\": mismatched input \'?mountain\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 138,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:P416 ?mountain; wdt:P131 wd:Italy; wdt:P2048 ?elevation . FILTER (?elevation &gt; 0) } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 436,\n        "stopIndex": 444\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:P416 ?mountain; wdt:P131 wd:Italy; wdt:P2048 ?elevation . FILTER (?elevation &gt; 0) } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Albert_Einstein wdt:P101 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?mainOccupation WHERE { wd:Q76 wdt:P106 ?occupation . ?occupation wdt:P31 ?mainOccupation . FILTER (strstarts(str(?mainOccupation), "Q") &amp;&amp; ?mainOccupation != wd:Q76) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.w3.org/2007/05/trix/rdfsource&gt; &lt;http://www.wikidata.org/entity/Q21690&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?population WHERE { wd:Q776 wdt:P1088 ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?Author WHERE { wd:The_Interpretation_of_Dreams wdt:P175 ?Author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:John_Adams wdt:P569 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q142 dbr:European_Union wdt:P1082 ?europop }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"p179\\": extraneous input \'p179\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT ?uri WHERE { qd:Q43871 p179 ?uri }",\n        "startIndex": 30,\n        "stopIndex": 33\n    },\n    "query": "SELECT ?uri WHERE { qd:Q43871 p179 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?europop\\": extraneous input \'?europop\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 112,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q142 dbr:European_Union wdt:P1082 ?europop }",\n        "startIndex": 410,\n        "stopIndex": 417\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q142 dbr:European_Union wdt:P1082 ?europop }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:China wdt:P175 ?currency. BIND(STRAFTER(STR(?currency), STR(wd:)) AS ?currencyId) SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } OPTIONAL { ?currency wdt:P38 ?value } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 69,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q116621 wd:budget ?n }",\n        "startIndex": 69,\n        "stopIndex": 78\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q116621 wd:budget ?n }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 214,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:China wdt:P175 ?currency. BIND(STRAFTER(STR(?currency), STR(wd:)) AS ?currencyId) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?currency wdt:P38 ?value } }",\n        "startIndex": 512,\n        "stopIndex": 525\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:China wdt:P175 ?currency. BIND(STRAFTER(STR(?currency), STR(wd:)) AS ?currencyId) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?currency wdt:P38 ?value } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q21696 wdt:P570 ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q6604&gt; ; &lt;http://www.wikidata.org/prop/direct/P168&gt; &lt;http://www.wikidata.org/entity/Q157&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q495&gt; ; &lt;http://www.wikidata.org/prop/direct/P17&gt; &lt;http://www.wikidata.org/entity/Q212&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:World_of_Warcraft p179 ?uri }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 140,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q393439 wds:P577 ?runtime }",\n        "startIndex": 140,\n        "stopIndex": 149\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q393439 wds:P577 ?runtime }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 3,\n        "total": 3\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"p179\\": extraneous input \'p179\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 50,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { wd:World_of_Warcraft p179 ?uri }",\n        "startIndex": 348,\n        "stopIndex": 351\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { wd:World_of_Warcraft p179 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11491. BIND(str(?uri) AS ?companyURI). OPTIONAL { ?uri wdt:P97 ?industry. FILTER(regex(?industry, "advertising", "i")). } UNION { ?uri wdt:P279* wd:Q47471090. } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1",\n        "startIndex": 32,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 183,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11491. BIND(str(?uri) AS ?companyURI). OPTIONAL { ?uri wdt:P97 ?industry. FILTER(regex(?industry, \\"advertising\\", \\"i\\")). } UNION { ?uri wdt:P279* wd:Q47471090. } }",\n        "startIndex": 481,\n        "stopIndex": 485\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11491. BIND(str(?uri) AS ?companyURI). OPTIONAL { ?uri wdt:P97 ?industry. FILTER(regex(?industry, \\"advertising\\", \\"i\\")). } UNION { ?uri wdt:P279* wd:Q47471090. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?university WHERE { wd:Q80204 wdt:P69 ?university }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;https://www.wikidata.org/prop/direct/P31&gt; ; &lt;https://www.wikidata.org/prop/direct/P161&gt; &lt;https://www.wikidata.org/wiki/Q162828&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#CreativeWork&gt; ; &lt;http://www.wikidata.org/property/P345&gt; &lt;http://www.wikidata.org/entity/Q303&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Mount_Everest wdt:P131 ?uri . ?uri wikibase:Q142 }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q13002 wdt:P2047 ?num }",\n        "startIndex": 80,\n        "stopIndex": 88\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q13002 wdt:P2047 ?num }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"}\\": mismatched input \'}\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 178,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Mount_Everest wdt:P131 ?uri . ?uri wikibase:Q142 }",\n        "startIndex": 476,\n        "stopIndex": 476\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Mount_Everest wdt:P131 ?uri . ?uri wikibase:Q142 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q159&gt; &lt;http://www.wikidata.org/prop/direct/P30&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX res: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { res:Brooklyn_Bridge wdt:P1084 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q135028&gt; ; &lt;http://www.wikidata.org/prop/direct/P19&gt; &lt;http://www.wikidata.org/entity/Q13419&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film WHERE { ?film a wdt:P31 ; wds:P161 wd:Q42 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q51194&gt; ; &lt;http://www.wikidata.org/prop/direct/P2043&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q555 (wdt:P1082)?pop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?person WHERE { ?person wdt:P31 wdt:P279* wd:Q5 ; wdt:P20 wd:Q183. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?mountain\\": mismatched input \'?mountain\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 138,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:P416 ?mountain; wdt:P131 wd:Italy; wdt:P2048 ?elevation . FILTER (?elevation &gt; 0) } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 138,\n        "stopIndex": 146\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:P416 ?mountain; wdt:P131 wd:Italy; wdt:P2048 ?elevation . FILTER (?elevation &gt; 0) } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 143,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?person WHERE { ?person wdt:P31 wdt:P279* wd:Q5 ; wdt:P20 wd:Q183. }",\n        "startIndex": 441,\n        "stopIndex": 441\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?person WHERE { ?person wdt:P31 wdt:P279* wd:Q5 ; wdt:P20 wd:Q183. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+`PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q506 ?child wdt:P40 ?uri }`</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 81,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:John_Adams wdt:P569 ?date }",\n        "startIndex": 81,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:John_Adams wdt:P569 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 0,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q506 ?child wdt:P40 ?uri }`",\n        "startIndex": 298,\n        "stopIndex": 298\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q506 ?child wdt:P40 ?uri }`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX schema: &lt;http://schema.org/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?ele WHERE { wd:1131175 wdt:P1549 ?ele } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { wd:Mecca wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?height WHERE { wd:Q42761 wdt:P2048 ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q313061 wdt:P50 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q75918&gt; &lt;http://www.wikidata.org/prop/directProperty/P110&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?place WHERE { wd:Q45573 wdt:P20 ?place }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515; wdt:P1082 ?pop FILTER ( ?pop != 0 ) } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q685941']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P50 wd:Walt_Disney . FILTER( strstarts( str(?uri), "http://www.wikidata.org/entity/Q") ) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31/wdt:P279* (wd:Q1989 ; wd:Q312458) ; wdt:P17 wd:Q35 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?europop\\": extraneous input \'?europop\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 112,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q142 dbr:European_Union wdt:P1082 ?europop }",\n        "startIndex": 112,\n        "stopIndex": 119\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q142 dbr:European_Union wdt:P1082 ?europop }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \')\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 64,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P31/wdt:P279* (wd:Q1989 ; wd:Q312458) ; wdt:P17 wd:Q35 . }",\n        "startIndex": 362,\n        "stopIndex": 362\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P31/wdt:P279* (wd:Q1989 ; wd:Q312458) ; wdt:P17 wd:Q35 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q96&gt; &lt;http://www.wikidata.org/prop/direct/P166&gt; ?ni }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Abraham_Lincoln wdt:P1107 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?capital WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P2046&gt; ?country. ?country &lt;http://www.wikidata.org/prop/direct/P17&gt; ?countryLabel. ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 214,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:China wdt:P175 ?currency. BIND(STRAFTER(STR(?currency), STR(wd:)) AS ?currencyId) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?currency wdt:P38 ?value } }",\n        "startIndex": 214,\n        "stopIndex": 227\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?currency WHERE { wd:China wdt:P175 ?currency. BIND(STRAFTER(STR(?currency), STR(wd:)) AS ?currencyId) SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } OPTIONAL { ?currency wdt:P38 ?value } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 250,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?capital WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P2046&gt; ?country. ?country &lt;http://www.wikidata.org/prop/direct/P17&gt; ?countryLabel. ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 548,\n        "stopIndex": 561\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?capital WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P2046&gt; ?country. ?country &lt;http://www.wikidata.org/prop/direct/P17&gt; ?countryLabel. ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` Now, let's combine these prefixes with the query: `sparql&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?location WHERE {wd:Limerick_Lake wdt:P30 ?location}</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 69,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q21696 wdt:P570 ?x } LIMIT 1",\n        "startIndex": 69,\n        "stopIndex": 77\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q21696 wdt:P570 ?x } LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 50,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` Now, let\'s combine these prefixes with the query: `sparql&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?location WHERE {wd:Limerick_Lake wdt:P30 ?location}",\n        "startIndex": 348,\n        "stopIndex": 348\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` Now, let\'s combine these prefixes with the query: `sparql&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?location WHERE {wd:Limerick_Lake wdt:P30 ?location}",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?num WHERE { wd:Q698228 wdt:P2047 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/prop/directive/P57&gt; &lt;http://www.wikidata.org/entity/Q543730&gt;; &lt;http://www.wikidata.org/prop/starring/P161&gt; &lt;http://www.wikidata.org/entity/Q543730&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?item wdt:P38 wd:Q20899. SERVICE wikibase:serviceLink { bd:serviceClass wikibase:entities.allValuesPaths. } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"p179\\": extraneous input \'p179\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 50,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:World_of_Warcraft p179 ?uri }",\n        "startIndex": 50,\n        "stopIndex": 53\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:World_of_Warcraft p179 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 221,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?item wdt:P38 wd:Q20899. SERVICE wikibase:serviceLink { bd:serviceClass wikibase:entities.allValuesPaths. } }",\n        "startIndex": 519,\n        "stopIndex": 519\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?item wdt:P38 wd:Q20899. SERVICE wikibase:serviceLink { bd:serviceClass wikibase:entities.allValuesPaths. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pIraq WHERE { wd:Q34 wdt:P1082 ?pIraq }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type wdt:P831 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1428 ; wdt:P17 wd:Q35 ; wdt:P138 wd:Q1293 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?actor ?date WHERE { &lt;https://www.wikidata.org/wiki/Q214523&gt; &lt;https://www.wikidata.org/prop/direct/109&gt; ?actor . ?actor &lt;https://www.wikidata.org/prop/direct/P569&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { wd:The_Three_Dancers wdt:P166 ?person. ?person p:P137/ps:P137 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a wd:Actor . OPTIONAL { ?uri wdt:P20 ?place } . OPTIONAL { ?place wdt:P17 wd:Germany } . FILTER NOT EXISTS { ?uri wdt:P31 wd:Q5 } UNION BIND(wd:Germany AS ?place) ?uri wdt:P20 ?place . FILTER (?place = wd:Germany) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 183,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11491. BIND(str(?uri) AS ?companyURI). OPTIONAL { ?uri wdt:P97 ?industry. FILTER(regex(?industry, \\"advertising\\", \\"i\\")). } UNION { ?uri wdt:P279* wd:Q47471090. } }",\n        "startIndex": 183,\n        "stopIndex": 187\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11491. BIND(str(?uri) AS ?companyURI). OPTIONAL { ?uri wdt:P97 ?industry. FILTER(regex(?industry, \\"advertising\\", \\"i\\")). } UNION { ?uri wdt:P279* wd:Q47471090. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 164,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a wd:Actor . OPTIONAL { ?uri wdt:P20 ?place } . OPTIONAL { ?place wdt:P17 wd:Germany } . FILTER NOT EXISTS { ?uri wdt:P31 wd:Q5 } UNION BIND(wd:Germany AS ?place) ?uri wdt:P20 ?place . FILTER (?place = wd:Germany) }",\n        "startIndex": 462,\n        "stopIndex": 466\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a wd:Actor . OPTIONAL { ?uri wdt:P20 ?place } . OPTIONAL { ?place wdt:P17 wd:Germany } . FILTER NOT EXISTS { ?uri wdt:P31 wd:Q5 } UNION BIND(wd:Germany AS ?place) ?uri wdt:P20 ?place . FILTER (?place = wd:Germany) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Brooklyn_Bridge wdt:P102 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Game_of_Thrones wdt:P175 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { ?uri wdt:P57 wd:Q1383. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { dbr:Adele wdt:P1477 ?bn }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"}\\": mismatched input \'}\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 178,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Mount_Everest wdt:P131 ?uri . ?uri wikibase:Q142 }",\n        "startIndex": 178,\n        "stopIndex": 178\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Mount_Everest wdt:P131 ?uri . ?uri wikibase:Q142 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 115,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { dbr:Adele wdt:P1477 ?bn }",\n        "startIndex": 413,\n        "stopIndex": 421\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { dbr:Adele wdt:P1477 ?bn }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11173 ; wdt:P175 &lt;http://www.wikidata.org/entity/Q50976&gt; ; wdt:P577 ?d. FILTER (?d != "0000-00-00") ORDER BY ASC(?d) } LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 143,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?person WHERE { ?person wdt:P31 wdt:P279* wd:Q5 ; wdt:P20 wd:Q183. }",\n        "startIndex": 143,\n        "stopIndex": 143\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?person WHERE { ?person wdt:P31 wdt:P279* wd:Q5 ; wdt:P20 wd:Q183. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 197,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11173 ; wdt:P175 &lt;http://www.wikidata.org/entity/Q50976&gt; ; wdt:P577 ?d. FILTER (?d != \\"0000-00-00\\") ORDER BY ASC(?d) } LIMIT 1",\n        "startIndex": 495,\n        "stopIndex": 502\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11173 ; wdt:P175 &lt;http://www.wikidata.org/entity/Q50976&gt; ; wdt:P577 ?d. FILTER (?d != \\"0000-00-00\\") ORDER BY ASC(?d) } LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?currency WHERE { wd:Czech_Republic wdt:P37 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri wdt:P20 wd:Q695 . ?uri wdt:P70 wd:Q175 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?bridge WHERE { ?bridge a wikidata:Bridge ; wikidata:crosses wikidata:Q2953 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "`PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q506 ?child wdt:P40 ?uri }`",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "`PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q506 ?child wdt:P40 ?uri }`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikidata was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 42,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?bridge WHERE { ?bridge a wikidata:Bridge ; wikidata:crosses wikidata:Q2953 . }",\n        "startIndex": 340,\n        "stopIndex": 354\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?bridge WHERE { ?bridge a wikidata:Bridge ; wikidata:crosses wikidata:Q2953 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5. ?x wdt:P50 ?uri. ?x wdt:P31 wd:Q33999. } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
+Response:
+b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5. ?x wdt:P50 ?uri. ?x wdt:P31 wd:Q33999. } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [\n                                    {\n                                        "cache_status": "cached_not_pinned",\n                                        "children": [\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?uri"\n                                                                ],\n                                                                "description": "IndexScan ?uri &lt;http://www.wikidata.org/prop/direct/P106&gt; &lt;http://www.wikidata.org/entity/Q5&gt;",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 0,\n                                                                "estimated_size": 0,\n                                                                "estimated_total_cost": 0,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 1,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            },\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?uri",\n                                                                    "?x"\n                                                                ],\n                                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/prop/direct/P50&gt; ?uri",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    13.816901206970215,\n                                                                    2.4047954082489014\n                                                                ],\n                                                                "estimated_operation_cost": 32847652,\n                                                                "estimated_size": 32847652,\n                                                                "estimated_total_cost": 32847652,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            }\n                                                        ],\n                                                        "column_names": [\n                                                            "?uri",\n                                                            "?x"\n                                                        ],\n                                                        "description": "Join on ?uri",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0,\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 32847652,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 65695304,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 2,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    }\n                                                ],\n                                                "column_names": [\n                                                    "?uri",\n                                                    "?x"\n                                                ],\n                                                "description": "Sort (internal order) on ?x",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0,\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 65695304,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 2,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            },\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [],\n                                                "column_names": [\n                                                    "?x"\n                                                ],\n                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q33999&gt;",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 0,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 1,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            }\n                                        ],\n                                        "column_names": [\n                                            "?uri",\n                                            "?x"\n                                        ],\n                                        "description": "Join on ?x",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0,\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 0,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 65695304,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 2,\n                                        "result_rows": 0,\n                                        "status": "fully materialized",\n                                        "total_time": 0\n                                    }\n                                ],\n                                "column_names": [\n                                    "?uri",\n                                    "?x",\n                                    "?_QLever_internal_variable_0 (U)"\n                                ],\n                                "description": "BIND ((COUNT(?x)) AS ?_QLever_internal_variable_0)",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 18446744073643856312,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 0,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 3,\n                                "result_rows": 0,\n                                "status": "failed",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?uri",\n                            "?x",\n                            "?_QLever_internal_variable_0 (U)"\n                        ],\n                        "description": "Sort (internal order) on ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 1,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 1,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 3,\n                        "result_rows": 0,\n                        "status": "failed because child failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?x",\n                    "?_QLever_internal_variable_0 (U)"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 1,\n                "operation_time": 1,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 3,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 1\n            }\n        ],\n        "column_names": [\n            "?uri",\n            "?x",\n            "?_QLever_internal_variable_0 (U)"\n        ],\n        "description": "OrderBy on DESC(?_QLever_internal_variable_0)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 1,\n        "operation_time": 0,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 3,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 1\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 9,\n        "total": 9\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P577 wd:Q31389. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?writer WHERE { ?writer a wikidata.org/entity/Q5 ; wikidata.org/property/P166 wikidata.org/entity/Q80 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 20,\n        "query": "SELECT ?uri WHERE { wd:Mecca wdt:P17 ?uri }",\n        "startIndex": 20,\n        "stopIndex": 27\n    },\n    "query": "SELECT ?uri WHERE { wd:Mecca wdt:P17 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"wikidata.org\\": mismatched input \'wikidata.org\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 33,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?writer WHERE { ?writer a wikidata.org/entity/Q5 ; wikidata.org/property/P166 wikidata.org/entity/Q80 . }",\n        "startIndex": 331,\n        "stopIndex": 342\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?writer WHERE { ?writer a wikidata.org/entity/Q5 ; wikidata.org/property/P166 wikidata.org/entity/Q80 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q321084&gt; wdt:P97 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/prop/direct/P106&gt; &lt;http://www.wikidata.org/entity/Q363515&gt; ; &lt;http://www.wikidata.org/prop/direct/P1308&gt; &lt;http://www.wikidata.org/entity/Q10424&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Athlete&gt; ; wdt:P2047 ?n. FILTER ( ?n &gt; 2.0 ) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P279* wd:Q11424 ; wdt:P161 wd:Q81466 ; wdt:P161 wd:Q155691. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 23,\n        "query": "SELECT ?height WHERE { wd:Q42761 wdt:P2048 ?height }",\n        "startIndex": 23,\n        "stopIndex": 31\n    },\n    "query": "SELECT ?height WHERE { wd:Q42761 wdt:P2048 ?height }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 192,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P279* wd:Q11424 ; wdt:P161 wd:Q81466 ; wdt:P161 wd:Q155691. }",\n        "startIndex": 490,\n        "stopIndex": 490\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P279* wd:Q11424 ; wdt:P161 wd:Q81466 ; wdt:P161 wd:Q155691. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Canada wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri wdt:P31 wd:Q5; wdt:P141 wd:Q618778; wdt:P275 ?birthplace. FILTER(regex(?birthplace, "Malta")) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Cameroon wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Q8387&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q38672&gt; { ?uri &lt;http://www.wikidata.org/prop/direct/P27&gt; &lt;http://www.wikidata.org/entity/Q159&gt; } UNION { ?uri &lt;http://www.wikidata.org/prop/direct/P27&gt; &lt;http://www.wikidata.org/entity/Q1347&gt; } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { ?entity wdt:P137 ?creator. FILTER (regex(str(?entity), "Family Guy")). FILTER (regex(str(?creator), "Seth MacFarlane")). }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Mexico_City WHERE { dbr:Mexico_City wdt:P1082 ?Mexico_City . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515; wdt:P1082 ?pop FILTER ( ?pop != 0 ) } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n        "startIndex": 93,\n        "stopIndex": 99\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515; wdt:P1082 ?pop FILTER ( ?pop != 0 ) } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 79,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Mexico_City WHERE { dbr:Mexico_City wdt:P1082 ?Mexico_City . }",\n        "startIndex": 377,\n        "stopIndex": 391\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Mexico_City WHERE { dbr:Mexico_City wdt:P1082 ?Mexico_City . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?entity wdt:P31 wd:Q96. ?entity wdt:P50 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Australia wdt:P17 ?x . ?x wdt:P36 ?capital . ?capital wdt:P1082 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:North_Rhine-Westphalia wdt:P2046 ?tarea }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q73&gt; &lt;http://www.wikidata.org/prop/direct/P1082&gt; ?number }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?n WHERE { wd:Pulp_Fiction wdt:P179 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT ?film ?filmtitle WHERE { {SERVICE wikibase:label { bd:serviceParam wikibase:language "en". }} ?film a wdt:P31 wd:Q11424 . ?film wds:P161 ?starring . ?starring wdt:P18 wd:Q77909 . ?film wds:P57 ?filmtitle . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \')\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 64,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31/wdt:P279* (wd:Q1989 ; wd:Q312458) ; wdt:P17 wd:Q35 . }",\n        "startIndex": 64,\n        "stopIndex": 64\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31/wdt:P279* (wd:Q1989 ; wd:Q312458) ; wdt:P17 wd:Q35 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q11424\\": mismatched input \'wd:Q11424\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 262,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT ?film ?filmtitle WHERE { {SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }} ?film a wdt:P31 wd:Q11424 . ?film wds:P161 ?starring . ?starring wdt:P18 wd:Q77909 . ?film wds:P57 ?filmtitle . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 560,\n        "stopIndex": 568\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT ?film ?filmtitle WHERE { {SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }} ?film a wdt:P31 wd:Q11424 . ?film wds:P161 ?starring . ?starring wdt:P18 wd:Q77909 . ?film wds:P57 ?filmtitle . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item a &lt;http://www.wikidata.org/ontology#Movie&gt; ; &lt;http://www.wikidata.org/prop/direct/P17&gt; &lt;http://www.wikidata.org/entity/Q147&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+`SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }`</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 250,\n        "query": "SELECT ?capital WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P2046&gt; ?country. ?country &lt;http://www.wikidata.org/prop/direct/P17&gt; ?countryLabel. ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 250,\n        "stopIndex": 263\n    },\n    "query": "SELECT ?capital WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P2046&gt; ?country. ?country &lt;http://www.wikidata.org/prop/direct/P17&gt; ?countryLabel. ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 50,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` Now, let\'s combine these prefixes with the query: `sparql&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?location WHERE {wd:Limerick_Lake wdt:P30 ?location}",\n        "startIndex": 50,\n        "stopIndex": 50\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;` `PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt;` `PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;` Now, let\'s combine these prefixes with the query: `sparql&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/entity/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?location WHERE {wd:Limerick_Lake wdt:P30 ?location}",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 221,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?item wdt:P38 wd:Q20899. SERVICE wikibase:serviceLink { bd:serviceClass wikibase:entities.allValuesPaths. } }",\n        "startIndex": 221,\n        "stopIndex": 221\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?item WHERE { ?item wdt:P38 wd:Q20899. SERVICE wikibase:serviceLink { bd:serviceClass wikibase:entities.allValuesPaths. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1428 ; wdt:P17 wd:Q35 ; wdt:P138 wd:Q1293 }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1428 ; wdt:P17 wd:Q35 ; wdt:P138 wd:Q1293 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix ps was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 221,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { wd:The_Three_Dancers wdt:P166 ?person. ?person p:P137/ps:P137 ?uri. }",\n        "startIndex": 221,\n        "stopIndex": 227\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { wd:The_Three_Dancers wdt:P166 ?person. ?person p:P137/ps:P137 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 164,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a wd:Actor . OPTIONAL { ?uri wdt:P20 ?place } . OPTIONAL { ?place wdt:P17 wd:Germany } . FILTER NOT EXISTS { ?uri wdt:P31 wd:Q5 } UNION BIND(wd:Germany AS ?place) ?uri wdt:P20 ?place . FILTER (?place = wd:Germany) }",\n        "startIndex": 164,\n        "stopIndex": 168\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a wd:Actor . OPTIONAL { ?uri wdt:P20 ?place } . OPTIONAL { ?place wdt:P17 wd:Germany } . FILTER NOT EXISTS { ?uri wdt:P31 wd:Q5 } UNION BIND(wd:Germany AS ?place) ?uri wdt:P20 ?place . FILTER (?place = wd:Germany) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 115,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { dbr:Adele wdt:P1477 ?bn }",\n        "startIndex": 115,\n        "stopIndex": 123\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { dbr:Adele wdt:P1477 ?bn }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 197,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11173 ; wdt:P175 &lt;http://www.wikidata.org/entity/Q50976&gt; ; wdt:P577 ?d. FILTER (?d != \\"0000-00-00\\") ORDER BY ASC(?d) } LIMIT 1",\n        "startIndex": 197,\n        "stopIndex": 204\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11173 ; wdt:P175 &lt;http://www.wikidata.org/entity/Q50976&gt; ; wdt:P577 ?d. FILTER (?d != \\"0000-00-00\\") ORDER BY ASC(?d) } LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 25,\n        "query": "SELECT ?currency WHERE { wd:Czech_Republic wdt:P37 ?currency }",\n        "startIndex": 25,\n        "stopIndex": 41\n    },\n    "query": "SELECT ?currency WHERE { wd:Czech_Republic wdt:P37 ?currency }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 25,\n        "query": "SELECT ?uri WHERE { ?uri wdt:P20 wd:Q695 . ?uri wdt:P70 wd:Q175 . }",\n        "startIndex": 25,\n        "stopIndex": 31\n    },\n    "query": "SELECT ?uri WHERE { ?uri wdt:P20 wd:Q695 . ?uri wdt:P70 wd:Q175 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikidata was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?bridge WHERE { ?bridge a wikidata:Bridge ; wikidata:crosses wikidata:Q2953 . }",\n        "startIndex": 42,\n        "stopIndex": 56\n    },\n    "query": "SELECT DISTINCT ?bridge WHERE { ?bridge a wikidata:Bridge ; wikidata:crosses wikidata:Q2953 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5. ?x wdt:P50 ?uri. ?x wdt:P31 wd:Q33999. } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5. ?x wdt:P50 ?uri. ?x wdt:P31 wd:Q33999. } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"wikidata.org\\": mismatched input \'wikidata.org\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT ?writer WHERE { ?writer a wikidata.org/entity/Q5 ; wikidata.org/property/P166 wikidata.org/entity/Q80 . }",\n        "startIndex": 33,\n        "stopIndex": 44\n    },\n    "query": "SELECT ?writer WHERE { ?writer a wikidata.org/entity/Q5 ; wikidata.org/property/P166 wikidata.org/entity/Q80 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 81,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Athlete&gt; ; wdt:P2047 ?n. FILTER ( ?n &gt; 2.0 ) }",\n        "startIndex": 81,\n        "stopIndex": 89\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/ontology#Athlete&gt; ; wdt:P2047 ?n. FILTER ( ?n &gt; 2.0 ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 192,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P279* wd:Q11424 ; wdt:P161 wd:Q81466 ; wdt:P161 wd:Q155691. }",\n        "startIndex": 192,\n        "stopIndex": 192\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P279* wd:Q11424 ; wdt:P161 wd:Q81466 ; wdt:P161 wd:Q155691. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Canada wdt:P36 ?uri }",\n        "startIndex": 80,\n        "stopIndex": 88\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Canada wdt:P36 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 25,\n        "query": "SELECT ?uri WHERE { ?uri wdt:P31 wd:Q5; wdt:P141 wd:Q618778; wdt:P275 ?birthplace. FILTER(regex(?birthplace, \\"Malta\\")) }",\n        "startIndex": 25,\n        "stopIndex": 31\n    },\n    "query": "SELECT ?uri WHERE { ?uri wdt:P31 wd:Q5; wdt:P141 wd:Q618778; wdt:P275 ?birthplace. FILTER(regex(?birthplace, \\"Malta\\")) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Cameroon wdt:P36 ?uri }",\n        "startIndex": 80,\n        "stopIndex": 90\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Cameroon wdt:P36 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 79,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Mexico_City WHERE { dbr:Mexico_City wdt:P1082 ?Mexico_City . }",\n        "startIndex": 79,\n        "stopIndex": 93\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Mexico_City WHERE { dbr:Mexico_City wdt:P1082 ?Mexico_City . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 28,\n        "query": "SELECT ?uri WHERE { ?entity wdt:P31 wd:Q96. ?entity wdt:P50 ?uri. }",\n        "startIndex": 28,\n        "stopIndex": 34\n    },\n    "query": "SELECT ?uri WHERE { ?entity wdt:P31 wd:Q96. ?entity wdt:P50 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Australia wdt:P17 ?x . ?x wdt:P36 ?capital . ?capital wdt:P1082 ?num . }",\n        "startIndex": 80,\n        "stopIndex": 91\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Australia wdt:P17 ?x . ?x wdt:P36 ?capital . ?capital wdt:P1082 ?num . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q11424\\": mismatched input \'wd:Q11424\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 262,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT ?film ?filmtitle WHERE { {SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }} ?film a wdt:P31 wd:Q11424 . ?film wds:P161 ?starring . ?starring wdt:P18 wd:Q77909 . ?film wds:P57 ?filmtitle . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 262,\n        "stopIndex": 270\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT ?film ?filmtitle WHERE { {SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". }} ?film a wdt:P31 wd:Q11424 . ?film wds:P161 ?starring . ?starring wdt:P18 wd:Q77909 . ?film wds:P57 ?filmtitle . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "`SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }`",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "`SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 109,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX sd: &lt;http://schema.org/&gt; SELECT ?Almamater WHERE { wd:Angela_Merkel wdt:P69 ?Almamater }",\n        "startIndex": 109,\n        "stopIndex": 124\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX sd: &lt;http://schema.org/&gt; SELECT ?Almamater WHERE { wd:Angela_Merkel wdt:P69 ?Almamater }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Wrong Property</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Wrong Entity</t>
-  </si>
-  <si>
-    <t>Entity treated as Property</t>
-  </si>
-  <si>
-    <t>Unadapted Dataset Patterns</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 0,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }`",\n        "startIndex": 298,\n        "stopIndex": 298\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:P17 ; wdt:P2046 ?n . FILTER( !BOUND(?n) ) } ORDER BY DESC(?n) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX sd: &lt;http://schema.org/&gt; SELECT ?Almamater WHERE { wd:Angela_Merkel wdt:P69 ?Almamater }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q3791&gt; &lt;http://www.wikidata.org/prop/direct/P170&gt; ?uri }</t>
   </si>
 </sst>
 </file>
@@ -1903,13 +2411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,2605 +2447,3040 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" t="s">
         <v>314</v>
       </c>
-      <c r="F3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>315</v>
       </c>
-      <c r="F4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>316</v>
       </c>
-      <c r="F5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>416</v>
+        <v>313</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
-        <v>422</v>
+        <v>313</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I17" t="s">
+        <v>316</v>
+      </c>
+      <c r="J17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F20" t="s">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I20" t="s">
+        <v>316</v>
+      </c>
+      <c r="J20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I24" t="s">
+        <v>318</v>
+      </c>
+      <c r="J24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>427</v>
+        <v>313</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F28" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I28" t="s">
+        <v>318</v>
+      </c>
+      <c r="J28" t="s">
+        <v>316</v>
+      </c>
+      <c r="K28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I29" t="s">
+        <v>316</v>
+      </c>
+      <c r="J29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F30" t="s">
-        <v>430</v>
+        <v>313</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F31" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I31" t="s">
+        <v>318</v>
+      </c>
+      <c r="J31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F32" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I32" t="s">
+        <v>318</v>
+      </c>
+      <c r="J32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F37" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F39" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F40" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F41" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I42" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F43" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I43" t="s">
+        <v>318</v>
+      </c>
+      <c r="J43" t="s">
+        <v>316</v>
+      </c>
+      <c r="K43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F44" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F45" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J45" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F46" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E47" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F48" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>313</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I52" t="s">
+        <v>318</v>
+      </c>
+      <c r="J52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="E53" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>313</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F54" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I55" t="s">
+        <v>314</v>
+      </c>
+      <c r="J55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>396</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="E56" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F56" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E57" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>398</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F58" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I58" t="s">
+        <v>314</v>
+      </c>
+      <c r="J58" t="s">
+        <v>318</v>
+      </c>
+      <c r="K58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>402</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F60" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I60" t="s">
+        <v>318</v>
+      </c>
+      <c r="J60" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>403</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E61" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F61" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>404</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E62" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F62" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I62" t="s">
+        <v>318</v>
+      </c>
+      <c r="J62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>406</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F63" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>407</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F64" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F65" t="s">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I65" t="s">
+        <v>318</v>
+      </c>
+      <c r="J65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F66" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I66" t="s">
+        <v>316</v>
+      </c>
+      <c r="J66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E67" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F67" t="s">
-        <v>444</v>
+        <v>313</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F68" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I68" t="s">
+        <v>317</v>
+      </c>
+      <c r="J68" t="s">
+        <v>318</v>
+      </c>
+      <c r="K68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>413</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F69" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>414</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F70" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>415</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F71" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I71" t="s">
+        <v>318</v>
+      </c>
+      <c r="J71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>416</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E72" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F72" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I72" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>418</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E73" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F73" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>420</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
-        <v>448</v>
+        <v>313</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>421</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F75" t="s">
-        <v>449</v>
+        <v>313</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I75" t="s">
+        <v>318</v>
+      </c>
+      <c r="J75" t="s">
+        <v>316</v>
+      </c>
+      <c r="K75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>422</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E76" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E77" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F77" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I77" t="s">
+        <v>316</v>
+      </c>
+      <c r="J77" t="s">
+        <v>314</v>
+      </c>
+      <c r="K77" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>426</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F78" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I78" t="s">
+        <v>317</v>
+      </c>
+      <c r="J78" t="s">
+        <v>316</v>
+      </c>
+      <c r="K78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>427</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I79" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>429</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F80" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I80" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>430</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E81" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F81" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I81" t="s">
+        <v>318</v>
+      </c>
+      <c r="J81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>431</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E82" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I82" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E83" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>434</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>313</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>435</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F85" t="s">
-        <v>456</v>
+        <v>313</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I85" t="s">
+        <v>318</v>
+      </c>
+      <c r="J85" t="s">
+        <v>316</v>
+      </c>
+      <c r="K85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>436</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E86" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F86" t="s">
-        <v>457</v>
+        <v>313</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>437</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E87" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F87" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>438</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E88" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F88" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>439</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F89" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>440</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E90" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F90" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F91" t="s">
-        <v>459</v>
+        <v>313</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I91" t="s">
+        <v>318</v>
+      </c>
+      <c r="J91" t="s">
+        <v>316</v>
+      </c>
+      <c r="K91" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F92" t="s">
-        <v>460</v>
+        <v>313</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I92" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F93" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>445</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F94" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I94" t="s">
+        <v>318</v>
+      </c>
+      <c r="J94" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>446</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F95" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>447</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F96" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I96" t="s">
+        <v>318</v>
+      </c>
+      <c r="J96" t="s">
+        <v>316</v>
+      </c>
+      <c r="K96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>449</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" t="s">
         <v>308</v>
       </c>
-      <c r="E97" t="s">
-        <v>408</v>
-      </c>
       <c r="F97" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>450</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" t="s">
         <v>309</v>
       </c>
-      <c r="E98" t="s">
-        <v>409</v>
-      </c>
       <c r="F98" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>452</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F99" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I99" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>453</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F100" t="s">
-        <v>463</v>
+        <v>313</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I100" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>454</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F101" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>468</v>
+        <v>318</v>
+      </c>
+      <c r="I101" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_llama_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_llama_wikidata_results_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\baseline-model\baseline-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9E722-B329-49ED-9E37-51F71D0B1A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC649ED-ADD0-4AF7-A657-FE7A63ABA454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="454">
   <si>
     <t>Question</t>
   </si>
@@ -995,9 +995,6 @@
   </si>
   <si>
     <t>Error Category 4</t>
-  </si>
-  <si>
-    <t>Stuctural Error</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
@@ -2414,7 +2411,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2462,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
         <v>108</v>
@@ -2488,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
@@ -2500,7 +2497,7 @@
         <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -2523,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
         <v>110</v>
@@ -2535,7 +2532,7 @@
         <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -2558,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
@@ -2587,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
@@ -2619,7 +2616,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
@@ -2654,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
@@ -2666,7 +2663,7 @@
         <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -2683,7 +2680,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -2695,7 +2692,7 @@
         <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -2712,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -2741,7 +2738,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
         <v>117</v>
@@ -2753,7 +2750,7 @@
         <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2770,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -2782,7 +2779,7 @@
         <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2802,7 +2799,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C13" t="s">
         <v>119</v>
@@ -2831,7 +2828,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
         <v>120</v>
@@ -2863,7 +2860,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
         <v>121</v>
@@ -2895,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s">
         <v>122</v>
@@ -2924,7 +2921,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
@@ -2956,7 +2953,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
         <v>124</v>
@@ -2985,13 +2982,13 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C19" t="s">
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E19" t="s">
         <v>230</v>
@@ -3014,7 +3011,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
         <v>126</v>
@@ -3049,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
@@ -3061,7 +3058,7 @@
         <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -3078,7 +3075,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" t="s">
         <v>128</v>
@@ -3104,7 +3101,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C23" t="s">
         <v>129</v>
@@ -3128,7 +3125,7 @@
         <v>318</v>
       </c>
       <c r="J23" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3136,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C24" t="s">
         <v>130</v>
@@ -3168,7 +3165,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
         <v>131</v>
@@ -3197,7 +3194,7 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C26" t="s">
         <v>132</v>
@@ -3223,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
@@ -3252,7 +3249,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C28" t="s">
         <v>134</v>
@@ -3264,7 +3261,7 @@
         <v>239</v>
       </c>
       <c r="F28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3287,7 +3284,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
         <v>135</v>
@@ -3299,7 +3296,7 @@
         <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3319,7 +3316,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
         <v>136</v>
@@ -3351,7 +3348,7 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
         <v>137</v>
@@ -3383,7 +3380,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
         <v>138</v>
@@ -3415,7 +3412,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
         <v>139</v>
@@ -3427,7 +3424,7 @@
         <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -3444,7 +3441,7 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s">
         <v>140</v>
@@ -3456,7 +3453,7 @@
         <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -3479,7 +3476,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
         <v>141</v>
@@ -3511,7 +3508,7 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
         <v>142</v>
@@ -3543,7 +3540,7 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C37" t="s">
         <v>143</v>
@@ -3569,7 +3566,7 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C38" t="s">
         <v>144</v>
@@ -3581,7 +3578,7 @@
         <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -3598,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C39" t="s">
         <v>145</v>
@@ -3630,7 +3627,7 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C40" t="s">
         <v>146</v>
@@ -3656,7 +3653,7 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C41" t="s">
         <v>147</v>
@@ -3685,7 +3682,7 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
         <v>148</v>
@@ -3717,7 +3714,7 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
         <v>149</v>
@@ -3752,7 +3749,7 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C44" t="s">
         <v>150</v>
@@ -3781,7 +3778,7 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C45" t="s">
         <v>151</v>
@@ -3793,7 +3790,7 @@
         <v>256</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -3816,7 +3813,7 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C46" t="s">
         <v>152</v>
@@ -3828,7 +3825,7 @@
         <v>257</v>
       </c>
       <c r="F46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -3845,7 +3842,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C47" t="s">
         <v>153</v>
@@ -3877,7 +3874,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
         <v>154</v>
@@ -3906,7 +3903,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C49" t="s">
         <v>155</v>
@@ -3938,7 +3935,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C50" t="s">
         <v>156</v>
@@ -3964,7 +3961,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
         <v>157</v>
@@ -3993,7 +3990,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
         <v>158</v>
@@ -4025,13 +4022,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C53" t="s">
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E53" t="s">
         <v>264</v>
@@ -4054,7 +4051,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
@@ -4080,7 +4077,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C55" t="s">
         <v>161</v>
@@ -4092,7 +4089,7 @@
         <v>266</v>
       </c>
       <c r="F55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -4112,7 +4109,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C56" t="s">
         <v>162</v>
@@ -4141,7 +4138,7 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C57" t="s">
         <v>163</v>
@@ -4167,7 +4164,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C58" t="s">
         <v>164</v>
@@ -4179,7 +4176,7 @@
         <v>269</v>
       </c>
       <c r="F58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -4202,7 +4199,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59" t="s">
         <v>165</v>
@@ -4214,7 +4211,7 @@
         <v>270</v>
       </c>
       <c r="F59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -4231,7 +4228,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C60" t="s">
         <v>166</v>
@@ -4263,7 +4260,7 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C61" t="s">
         <v>167</v>
@@ -4289,7 +4286,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s">
         <v>168</v>
@@ -4301,7 +4298,7 @@
         <v>273</v>
       </c>
       <c r="F62" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -4321,7 +4318,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C63" t="s">
         <v>169</v>
@@ -4350,7 +4347,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
         <v>170</v>
@@ -4379,7 +4376,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C65" t="s">
         <v>171</v>
@@ -4411,7 +4408,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C66" t="s">
         <v>172</v>
@@ -4443,7 +4440,7 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C67" t="s">
         <v>173</v>
@@ -4472,7 +4469,7 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C68" t="s">
         <v>174</v>
@@ -4484,7 +4481,7 @@
         <v>279</v>
       </c>
       <c r="F68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -4507,7 +4504,7 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C69" t="s">
         <v>175</v>
@@ -4533,7 +4530,7 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C70" t="s">
         <v>176</v>
@@ -4559,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C71" t="s">
         <v>177</v>
@@ -4591,7 +4588,7 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C72" t="s">
         <v>178</v>
@@ -4603,7 +4600,7 @@
         <v>283</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -4620,7 +4617,7 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s">
         <v>179</v>
@@ -4632,7 +4629,7 @@
         <v>284</v>
       </c>
       <c r="F73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -4649,7 +4646,7 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C74" t="s">
         <v>180</v>
@@ -4678,7 +4675,7 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C75" t="s">
         <v>181</v>
@@ -4713,7 +4710,7 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C76" t="s">
         <v>182</v>
@@ -4725,7 +4722,7 @@
         <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -4742,7 +4739,7 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C77" t="s">
         <v>183</v>
@@ -4754,7 +4751,7 @@
         <v>288</v>
       </c>
       <c r="F77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -4777,7 +4774,7 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C78" t="s">
         <v>184</v>
@@ -4812,7 +4809,7 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s">
         <v>185</v>
@@ -4824,7 +4821,7 @@
         <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -4841,7 +4838,7 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C80" t="s">
         <v>186</v>
@@ -4870,7 +4867,7 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C81" t="s">
         <v>187</v>
@@ -4902,7 +4899,7 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C82" t="s">
         <v>188</v>
@@ -4931,7 +4928,7 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C83" t="s">
         <v>189</v>
@@ -4943,7 +4940,7 @@
         <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -4960,7 +4957,7 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C84" t="s">
         <v>190</v>
@@ -4989,7 +4986,7 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C85" t="s">
         <v>191</v>
@@ -5024,7 +5021,7 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C86" t="s">
         <v>192</v>
@@ -5053,7 +5050,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s">
         <v>193</v>
@@ -5079,7 +5076,7 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C88" t="s">
         <v>194</v>
@@ -5108,7 +5105,7 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C89" t="s">
         <v>195</v>
@@ -5134,7 +5131,7 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C90" t="s">
         <v>196</v>
@@ -5146,7 +5143,7 @@
         <v>301</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -5163,7 +5160,7 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C91" t="s">
         <v>197</v>
@@ -5198,7 +5195,7 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C92" t="s">
         <v>198</v>
@@ -5227,7 +5224,7 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C93" t="s">
         <v>199</v>
@@ -5253,7 +5250,7 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C94" t="s">
         <v>200</v>
@@ -5285,7 +5282,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C95" t="s">
         <v>201</v>
@@ -5311,7 +5308,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C96" t="s">
         <v>202</v>
@@ -5323,7 +5320,7 @@
         <v>307</v>
       </c>
       <c r="F96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
@@ -5346,7 +5343,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C97" t="s">
         <v>203</v>
@@ -5372,7 +5369,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C98" t="s">
         <v>204</v>
@@ -5384,7 +5381,7 @@
         <v>309</v>
       </c>
       <c r="F98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -5401,7 +5398,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C99" t="s">
         <v>205</v>
@@ -5430,7 +5427,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C100" t="s">
         <v>206</v>
@@ -5459,7 +5456,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C101" t="s">
         <v>207</v>
